--- a/2차 프로젝트/자료수집/자료수집.xlsx
+++ b/2차 프로젝트/자료수집/자료수집.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\카누청년\Desktop\fuck that\FED-RF-2nd-PJ-YUN-CHEOL-\2차 프로젝트\자료수집\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\프론트앤드\FED-RF-2nd-PJ-YUN-CHEOL-\2차 프로젝트\자료수집\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F351C0-B190-4602-8EBF-626DB3AECA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94243CA6-6054-49ED-A13C-595B69DE2A64}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="158">
-  <si>
-    <t>메인분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
   <si>
     <t>서브분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,17 +659,70 @@
   </si>
   <si>
     <t>이미지 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,16 +744,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -712,13 +787,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,14 +889,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1059,11 +1269,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C4A98F-0123-44BC-B482-031656A5D06B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1078,1111 +1288,1103 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>150</v>
+      <c r="B2" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>379</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>299</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2">
         <v>249</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>151</v>
+      <c r="A5" s="7"/>
+      <c r="B5" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2">
         <v>1299</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2">
         <v>1045</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>1095</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
         <v>249</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H8">
         <v>2023</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2">
         <v>299</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H9">
         <v>2024</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
         <v>25</v>
       </c>
       <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2">
         <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2">
         <v>399</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" t="s">
-        <v>50</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2">
         <v>149</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" t="s">
-        <v>52</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2">
         <v>119</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" t="s">
-        <v>54</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2">
         <v>179</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2">
         <v>349</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" t="s">
-        <v>58</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2">
         <v>249</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2">
         <v>219</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>46</v>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2">
         <v>379</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2">
         <v>398</v>
       </c>
       <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" t="s">
-        <v>65</v>
       </c>
       <c r="E21" s="2">
         <v>599</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2">
         <v>699</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2">
         <v>799</v>
       </c>
       <c r="F23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" t="s">
-        <v>84</v>
       </c>
       <c r="E24" s="2">
         <v>199</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2">
         <v>399</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>79</v>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2">
         <v>499</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="2">
         <v>699</v>
       </c>
       <c r="F27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
       </c>
       <c r="E28" s="2">
         <v>599</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" s="2">
         <v>399</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2">
         <v>599</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
         <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
       </c>
       <c r="E31" s="2">
         <v>1899</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" s="2">
         <v>1299</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2">
         <v>1199</v>
       </c>
       <c r="F33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E34" s="2">
         <v>2898</v>
       </c>
       <c r="F34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="2">
         <v>3298</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" s="2">
         <v>2498</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>95</v>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37" s="2">
         <v>899</v>
       </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="2">
         <v>1299</v>
       </c>
       <c r="F38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E39" s="2">
         <v>1299</v>
       </c>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" t="s">
-        <v>105</v>
       </c>
       <c r="E40" s="2">
         <v>699</v>
       </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E41" s="2">
         <v>999</v>
       </c>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
         <v>17</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
       </c>
       <c r="E42" s="2">
         <v>433.99</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="7"/>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="2">
         <v>413.99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="7"/>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="2">
         <v>758</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" s="2">
         <v>528</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
         <v>22</v>
-      </c>
-      <c r="C46" t="s">
-        <v>23</v>
       </c>
       <c r="E46" s="2">
         <v>1178</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
         <v>24</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
       </c>
       <c r="E47" s="2">
         <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="6" t="s">
-        <v>118</v>
+      <c r="A48" s="9"/>
+      <c r="B48" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" s="2">
         <v>548</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="7"/>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E49" s="2">
         <v>598</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="7"/>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2">
         <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="7"/>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E51" s="2">
         <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="7"/>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E52" s="2">
         <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="6"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="7"/>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E53" s="2">
         <v>303.99</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="7"/>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E54" s="2">
         <v>283.99</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="6" t="s">
-        <v>119</v>
+      <c r="A55" s="9"/>
+      <c r="B55" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E55" s="2">
         <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="7"/>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="2">
         <v>720</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="7"/>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E57" s="2">
         <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="7"/>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E58" s="2">
         <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="6"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="7"/>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E59" s="2">
         <v>698</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="7"/>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E60" s="2">
         <v>987</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="7"/>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E61" s="2">
         <v>1168</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="7"/>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E62" s="2">
         <v>1328</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="6"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="7"/>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2">
         <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="6" t="s">
-        <v>120</v>
+      <c r="A64" s="9"/>
+      <c r="B64" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2">
         <v>798</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="6"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="7"/>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2">
         <v>1297</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="6"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="7"/>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2">
         <v>898</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="6"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="7"/>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2">
         <v>1398</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="6"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="7"/>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2">
         <v>1498</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="7"/>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2">
         <v>2097</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="7"/>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2">
         <v>1298</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="6"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="7"/>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2">
         <v>707</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="6" t="s">
-        <v>121</v>
+      <c r="A72" s="9"/>
+      <c r="B72" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E72" s="2">
         <v>1198</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="7"/>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2">
         <v>748</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="6"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="7"/>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2">
         <v>748</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
         <v>123</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
-      <c r="B77" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="3" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="6"/>
-      <c r="B80" s="3" t="s">
+      <c r="C80" t="s">
         <v>129</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="3" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" t="s">
         <v>132</v>
       </c>
-      <c r="C81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="6"/>
-      <c r="B82" s="3" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" t="s">
         <v>134</v>
       </c>
-      <c r="C82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="6"/>
-      <c r="B83" s="4" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" t="s">
         <v>136</v>
       </c>
-      <c r="C83" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="6"/>
-      <c r="B84" s="4" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
         <v>138</v>
       </c>
-      <c r="C84" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
-      <c r="B85" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="6"/>
-      <c r="B87" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B89" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B90" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B91" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A30:A41"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B9:B11"/>
     <mergeCell ref="A76:A87"/>
     <mergeCell ref="B55:B63"/>
     <mergeCell ref="A12:A22"/>
@@ -2198,9 +2400,343 @@
     <mergeCell ref="B64:B71"/>
     <mergeCell ref="B48:B54"/>
     <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I26"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="14">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="14">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15">
+        <f>C7*B7</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="16">
+        <v>4800</v>
+      </c>
+      <c r="C8" s="16">
+        <v>15</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" ref="D8:D13" si="0">C8*B8</f>
+        <v>72000</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="16">
+        <v>7000</v>
+      </c>
+      <c r="C9" s="16">
+        <v>12</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="16">
+        <v>12000</v>
+      </c>
+      <c r="C10" s="16">
+        <v>8</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>96000</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="16">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="16">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26"/>
+      <c r="B13" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="19">
+        <v>10</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21">
+        <f>SUM(D7:D13)</f>
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="14">
+        <v>50000</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <f>C17*B17</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="16">
+        <v>100000</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" ref="D18:D25" si="1">C18*B18</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="16">
+        <v>30000</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="16">
+        <v>180000</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="16">
+        <v>60000</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="16">
+        <v>50000</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="16">
+        <v>-15000</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="1"/>
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="16">
+        <v>30000</v>
+      </c>
+      <c r="C24" s="16">
+        <v>1</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21">
+        <f>SUM(D17:D25)</f>
+        <v>495000</v>
+      </c>
+      <c r="E26" s="11">
+        <f>D26+D14</f>
+        <v>1047000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2차 프로젝트/자료수집/자료수집.xlsx
+++ b/2차 프로젝트/자료수집/자료수집.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\프론트앤드\FED-RF-2nd-PJ-YUN-CHEOL-\2차 프로젝트\자료수집\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\카누청년\Desktop\fuck that\FED-RF-2nd-PJ-YUN-CHEOL-\2차 프로젝트\자료수집\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16411F-44BF-4B34-908D-CE3D0590032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="172">
   <si>
     <t>서브분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -638,10 +639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bose QuietComfort Ultra Headphones+CC2:E2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>베터리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,13 +708,25 @@
   </si>
   <si>
     <t>모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bose Ultra Open Earbuds - Lacy Edition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bose QuietComfort Ultra Headphones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bose QuietComfort Headphones - Lacy Edition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
@@ -889,71 +898,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1269,11 +1278,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C74"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1288,7 +1297,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1297,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -1306,21 +1315,21 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
         <v>152</v>
       </c>
-      <c r="H1" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="27" t="s">
         <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2">
         <v>379</v>
@@ -1330,8 +1339,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -1342,1072 +1351,1094 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2">
+      <c r="D5" s="1"/>
+      <c r="E5" s="2">
         <v>249</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>1299</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1045</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2">
-        <v>1095</v>
+        <v>1045</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1095</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>249</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2">
-        <v>299</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>154</v>
       </c>
       <c r="H9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2">
+        <v>299</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10">
         <v>2024</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2">
-        <v>49</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>33</v>
+      </c>
       <c r="E12" s="2">
-        <v>399</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2">
-        <v>119</v>
+        <v>399</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2">
-        <v>349</v>
+        <v>119</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2">
-        <v>219</v>
+        <v>349</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2">
-        <v>379</v>
+        <v>249</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2">
+        <v>219</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2">
+        <v>379</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E22" s="2">
         <v>398</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E23" s="2">
         <v>599</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="3" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E24" s="2">
         <v>699</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="2">
-        <v>799</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="2">
-        <v>199</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>77</v>
+      </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2">
-        <v>399</v>
+        <v>799</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2">
-        <v>499</v>
+        <v>199</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
       <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="2">
+        <v>399</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="2">
+        <v>499</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E29" s="2">
         <v>699</v>
-      </c>
-      <c r="F27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="2">
-        <v>599</v>
-      </c>
-      <c r="F28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="2">
-        <v>399</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>91</v>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2">
         <v>599</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E31" s="2">
-        <v>1899</v>
+        <v>399</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2">
-        <v>1299</v>
+        <v>599</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26" t="s">
+        <v>92</v>
+      </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2">
-        <v>1199</v>
+        <v>1899</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E34" s="2">
-        <v>2898</v>
+        <v>1299</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E35" s="2">
-        <v>3298</v>
+        <v>1199</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E36" s="2">
-        <v>2498</v>
+        <v>2898</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E37" s="2">
-        <v>899</v>
+        <v>3298</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E38" s="2">
-        <v>1299</v>
+        <v>2498</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E39" s="2">
-        <v>1299</v>
+        <v>899</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E40" s="2">
-        <v>699</v>
+        <v>1299</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E41" s="2">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="2">
+        <v>699</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="2">
+        <v>999</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B44" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E44" s="2">
         <v>433.99</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="7"/>
-      <c r="C43" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="27"/>
+      <c r="B45" s="26"/>
+      <c r="C45" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E45" s="2">
         <v>413.99</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="7"/>
-      <c r="C44" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="26"/>
+      <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E46" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="3" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
+      <c r="B47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E47" s="2">
         <v>528</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="3" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="27"/>
+      <c r="B48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E48" s="2">
         <v>1178</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="3" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
+      <c r="B49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E49" s="2">
         <v>628</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="7" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E50" s="2">
         <v>548</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="7"/>
-      <c r="C49" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="26"/>
+      <c r="C51" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E51" s="2">
         <v>598</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="7"/>
-      <c r="C50" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="B52" s="26"/>
+      <c r="C52" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E52" s="2">
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="7"/>
-      <c r="C51" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="27"/>
+      <c r="B53" s="26"/>
+      <c r="C53" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E53" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="7"/>
-      <c r="C52" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="27"/>
+      <c r="B54" s="26"/>
+      <c r="C54" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E54" s="2">
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="7"/>
-      <c r="C53" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="27"/>
+      <c r="B55" s="26"/>
+      <c r="C55" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E55" s="2">
         <v>303.99</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="7"/>
-      <c r="C54" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="27"/>
+      <c r="B56" s="26"/>
+      <c r="C56" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E56" s="2">
         <v>283.99</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="7" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E57" s="2">
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="7"/>
-      <c r="C56" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="27"/>
+      <c r="B58" s="26"/>
+      <c r="C58" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E58" s="2">
         <v>720</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="7"/>
-      <c r="C57" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="26"/>
+      <c r="C59" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E59" s="2">
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="7"/>
-      <c r="C58" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="27"/>
+      <c r="B60" s="26"/>
+      <c r="C60" t="s">
         <v>70</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E60" s="2">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="7"/>
-      <c r="C59" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="27"/>
+      <c r="B61" s="26"/>
+      <c r="C61" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E61" s="2">
         <v>698</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="7"/>
-      <c r="C60" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="27"/>
+      <c r="B62" s="26"/>
+      <c r="C62" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E62" s="2">
         <v>987</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="7"/>
-      <c r="C61" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="27"/>
+      <c r="B63" s="26"/>
+      <c r="C63" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E63" s="2">
         <v>1168</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="7"/>
-      <c r="C62" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="27"/>
+      <c r="B64" s="26"/>
+      <c r="C64" t="s">
         <v>74</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E64" s="2">
         <v>1328</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
-      <c r="B63" s="7"/>
-      <c r="C63" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="27"/>
+      <c r="B65" s="26"/>
+      <c r="C65" t="s">
         <v>75</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E65" s="2">
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="7" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="27"/>
+      <c r="B66" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
         <v>108</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E66" s="2">
         <v>798</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
-      <c r="B65" s="7"/>
-      <c r="C65" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="27"/>
+      <c r="B67" s="26"/>
+      <c r="C67" t="s">
         <v>110</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E67" s="2">
         <v>1297</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
-      <c r="B66" s="7"/>
-      <c r="C66" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="27"/>
+      <c r="B68" s="26"/>
+      <c r="C68" t="s">
         <v>109</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E68" s="2">
         <v>898</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
-      <c r="B67" s="7"/>
-      <c r="C67" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="27"/>
+      <c r="B69" s="26"/>
+      <c r="C69" t="s">
         <v>111</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E69" s="2">
         <v>1398</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
-      <c r="B68" s="7"/>
-      <c r="C68" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="27"/>
+      <c r="B70" s="26"/>
+      <c r="C70" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E70" s="2">
         <v>1498</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
-      <c r="B69" s="7"/>
-      <c r="C69" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="27"/>
+      <c r="B71" s="26"/>
+      <c r="C71" t="s">
         <v>113</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E71" s="2">
         <v>2097</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
-      <c r="B70" s="7"/>
-      <c r="C70" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="27"/>
+      <c r="B72" s="26"/>
+      <c r="C72" t="s">
         <v>114</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E72" s="2">
         <v>1298</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
-      <c r="B71" s="7"/>
-      <c r="C71" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="27"/>
+      <c r="B73" s="26"/>
+      <c r="C73" t="s">
         <v>115</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E73" s="2">
         <v>707</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
-      <c r="B72" s="7" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="27"/>
+      <c r="B74" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C74" t="s">
         <v>67</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E74" s="2">
         <v>1198</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
-      <c r="B73" s="7"/>
-      <c r="C73" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="27"/>
+      <c r="B75" s="26"/>
+      <c r="C75" t="s">
         <v>106</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E75" s="2">
         <v>748</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
-      <c r="B74" s="7"/>
-      <c r="C74" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="27"/>
+      <c r="B76" s="26"/>
+      <c r="C76" t="s">
         <v>107</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E76" s="2">
         <v>748</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C78" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="3" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="26"/>
+      <c r="B79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C79" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="3" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="26"/>
+      <c r="B80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="3" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="26"/>
+      <c r="B81" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C81" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="3" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="26"/>
+      <c r="B82" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="3" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="26"/>
+      <c r="B83" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="3" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="26"/>
+      <c r="B84" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="4" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="26"/>
+      <c r="B85" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="4" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="26"/>
+      <c r="B86" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="3" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="26"/>
+      <c r="B87" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C87" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="3" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="26"/>
+      <c r="B88" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="4" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="26"/>
+      <c r="B89" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="3" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C89" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C90" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B91" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="B55:B63"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A78:A89"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A42:A74"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A30:A41"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="A44:A76"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="B44:B46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2416,7 +2447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
@@ -2426,311 +2457,311 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="14">
+      <c r="A7" s="21"/>
+      <c r="B7" s="11">
         <v>4000</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>20</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <f>C7*B7</f>
         <v>80000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="16">
+      <c r="A8" s="22"/>
+      <c r="B8" s="13">
         <v>4800</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>15</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <f t="shared" ref="D8:D13" si="0">C8*B8</f>
         <v>72000</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="16">
+      <c r="A9" s="22"/>
+      <c r="B9" s="13">
         <v>7000</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>12</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>84000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="16">
+      <c r="A10" s="22"/>
+      <c r="B10" s="13">
         <v>12000</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>8</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>96000</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="16">
+      <c r="A11" s="22"/>
+      <c r="B11" s="13">
         <v>10000</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>10</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="14">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="16">
+      <c r="A12" s="22"/>
+      <c r="B12" s="13">
         <v>2000</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="14">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="19">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16">
         <v>10000</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="16">
         <v>10</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21">
+      <c r="A14" s="24"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18">
         <f>SUM(D7:D13)</f>
         <v>552000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="A17" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="11">
         <v>50000</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <v>1</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="11">
         <f>C17*B17</f>
         <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="16">
+      <c r="A18" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="13">
         <v>100000</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <v>1</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="13">
         <f t="shared" ref="D18:D25" si="1">C18*B18</f>
         <v>100000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="16">
+      <c r="A19" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="13">
         <v>30000</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="13">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="16">
+      <c r="A20" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="13">
         <v>180000</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="13">
         <v>1</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="13">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" s="16">
+      <c r="A21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="13">
         <v>60000</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="13">
         <v>1</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="13">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="16">
+      <c r="A22" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="13">
         <v>50000</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="13">
         <v>1</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="13">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="16">
+      <c r="A23" s="22"/>
+      <c r="B23" s="13">
         <v>-15000</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="13">
         <v>1</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="13">
         <f t="shared" si="1"/>
         <v>-15000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" s="16">
+      <c r="A24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="13">
         <v>30000</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="13">
         <v>1</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="13">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="19">
+      <c r="A25" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="16">
         <v>10000</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="16">
         <v>1</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="16">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21">
+      <c r="A26" s="24"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18">
         <f>SUM(D17:D25)</f>
         <v>495000</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="8">
         <f>D26+D14</f>
         <v>1047000</v>
       </c>

--- a/2차 프로젝트/자료수집/자료수집.xlsx
+++ b/2차 프로젝트/자료수집/자료수집.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\카누청년\Desktop\fuck that\FED-RF-2nd-PJ-YUN-CHEOL-\2차 프로젝트\자료수집\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\프론트앤드\FED-RF-2nd-PJ-YUN-CHEOL-\2차 프로젝트\자료수집\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16411F-44BF-4B34-908D-CE3D0590032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="246">
   <si>
     <t>서브분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,54 +663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통신1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통신2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bose Ultra Open Earbuds - Lacy Edition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,17 +673,274 @@
   <si>
     <t>Bose QuietComfort Headphones - Lacy Edition</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headphone Fit</t>
+  </si>
+  <si>
+    <t>Around Ear Circumaural</t>
+  </si>
+  <si>
+    <t>Headband</t>
+  </si>
+  <si>
+    <t>On Head Adjustable</t>
+  </si>
+  <si>
+    <t>Cushions</t>
+  </si>
+  <si>
+    <t>Removable Cushion</t>
+  </si>
+  <si>
+    <t>Microphones</t>
+  </si>
+  <si>
+    <t>Built-in Microphone</t>
+  </si>
+  <si>
+    <t>Noise Cancelling</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Noise Control Type</t>
+  </si>
+  <si>
+    <t>Active Noise Cancelling, Echo Reduction, Adjustable Noise Cancelling</t>
+  </si>
+  <si>
+    <t>Audio cable included</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>Headphone</t>
+  </si>
+  <si>
+    <t>7.7" H x 5.5" W x 2.0" D (0.56 lb)</t>
+  </si>
+  <si>
+    <t>Product Material</t>
+  </si>
+  <si>
+    <t>Plastic, Aluminum, Leather (Protein)</t>
+  </si>
+  <si>
+    <t>Product Case Material</t>
+  </si>
+  <si>
+    <t>Plastic (Hard)</t>
+  </si>
+  <si>
+    <t>Ear Cushion Material</t>
+  </si>
+  <si>
+    <t>Protein Leather</t>
+  </si>
+  <si>
+    <t>Rechargeable</t>
+  </si>
+  <si>
+    <t>Battery Life</t>
+  </si>
+  <si>
+    <t>24 hours</t>
+  </si>
+  <si>
+    <t>Battery Charge Time</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>Charging Accessory included</t>
+  </si>
+  <si>
+    <t>Charging Interface(s)</t>
+  </si>
+  <si>
+    <t>USB C PORT</t>
+  </si>
+  <si>
+    <t>Wireless Connectivity</t>
+  </si>
+  <si>
+    <t>Bluetooth, A2DP Bluetooth Audio Streaming, HFP Bluetooth, AVRCP Bluetooth, Bluetooth Low Energy</t>
+  </si>
+  <si>
+    <t>Bluetooth Version</t>
+  </si>
+  <si>
+    <t>Bluetooth Range</t>
+  </si>
+  <si>
+    <t>30'</t>
+  </si>
+  <si>
+    <t>Bose App</t>
+  </si>
+  <si>
+    <t>Bose Music App</t>
+  </si>
+  <si>
+    <t>What’s in the Box</t>
+  </si>
+  <si>
+    <t>Bose QuietComfort Ultra Headphones</t>
+  </si>
+  <si>
+    <t>Carry case</t>
+  </si>
+  <si>
+    <t>3.5 mm to 2.5 mm audio cable</t>
+  </si>
+  <si>
+    <t>USB-C® (A to C) cable (20")</t>
+  </si>
+  <si>
+    <t>Safety sheet</t>
+  </si>
+  <si>
+    <t>Bose QuietComfort Headphones</t>
+  </si>
+  <si>
+    <t>Carry Case</t>
+  </si>
+  <si>
+    <t>USB-C® (A to C) cable (12")</t>
+  </si>
+  <si>
+    <t>Safety Sheet</t>
+  </si>
+  <si>
+    <t>On Head</t>
+  </si>
+  <si>
+    <t>Active Noise Cancelling</t>
+  </si>
+  <si>
+    <t>Carry, Storage</t>
+  </si>
+  <si>
+    <t>7.68" H x 6.18" W x 3.15" D (0.520 lb)</t>
+  </si>
+  <si>
+    <t>Metal, Plastic, Leather (Protein)</t>
+  </si>
+  <si>
+    <t>Leather (Hard)</t>
+  </si>
+  <si>
+    <t>2.5 hours</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>Headset</t>
+  </si>
+  <si>
+    <t>1/8 Connector stereo input cable</t>
+  </si>
+  <si>
+    <t>2X Alkaline AA batteries</t>
+  </si>
+  <si>
+    <t>Control module holder</t>
+  </si>
+  <si>
+    <t>2X Cable clips</t>
+  </si>
+  <si>
+    <t>Quick Start Guide</t>
+  </si>
+  <si>
+    <t>Owner's guide</t>
+  </si>
+  <si>
+    <t>Warranty Card</t>
+  </si>
+  <si>
+    <t>Circumaural</t>
+  </si>
+  <si>
+    <t>Noise Cancelling, Echo Reduction, Adjustable Noise Cancelling</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>8.27" H x 6.69" W x 3.15" D (1.96 lb)</t>
+  </si>
+  <si>
+    <t>Metal, Plastic, Fabric</t>
+  </si>
+  <si>
+    <t>ProFlight Series 2 Aviation Headset</t>
+  </si>
+  <si>
+    <t>Carry case hook</t>
+  </si>
+  <si>
+    <t>2 AA batteries</t>
+  </si>
+  <si>
+    <t>3 sizes of StayHear+ eartips (S, M, L)</t>
+  </si>
+  <si>
+    <t>Owner’s guide</t>
+  </si>
+  <si>
+    <t>In Ear</t>
+  </si>
+  <si>
+    <t>Entire Product System</t>
+  </si>
+  <si>
+    <t>8.43" H x 6.34" W x 3.15" D (1.99 lb)</t>
+  </si>
+  <si>
+    <t>Leather (Protein), Plastic, Metal, Silicone, Stainless Steel</t>
+  </si>
+  <si>
+    <t>45 hours</t>
+  </si>
+  <si>
+    <t>Bose Connect App</t>
+  </si>
+  <si>
+    <t>A20 Headset</t>
+  </si>
+  <si>
+    <t>Carrying case</t>
+  </si>
+  <si>
+    <t>2 clothing clips</t>
+  </si>
+  <si>
+    <t>2 AA alkaline batteries</t>
+  </si>
+  <si>
+    <t>3.5 mm stereo audio cable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,42 +962,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -811,72 +994,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,75 +1022,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1278,10 +1347,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1322,14 +1391,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E2" s="2">
         <v>379</v>
@@ -1339,8 +1408,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -1352,18 +1421,18 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E4" s="2">
         <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -1376,8 +1445,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C6" t="s">
@@ -1391,8 +1460,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -1404,8 +1473,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1486,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1440,8 +1509,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
@@ -1462,10 +1531,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2">
@@ -1474,8 +1543,8 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -1487,8 +1556,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>35</v>
       </c>
@@ -1501,10 +1570,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C14" t="s">
@@ -1519,8 +1588,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" t="s">
         <v>49</v>
       </c>
@@ -1533,8 +1602,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>51</v>
       </c>
@@ -1547,8 +1616,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -1561,8 +1630,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" t="s">
         <v>54</v>
       </c>
@@ -1575,8 +1644,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" t="s">
         <v>57</v>
       </c>
@@ -1589,8 +1658,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -1603,8 +1672,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="s">
@@ -1619,8 +1688,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>62</v>
       </c>
@@ -1632,8 +1701,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" t="s">
         <v>64</v>
       </c>
@@ -1645,7 +1714,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
@@ -1660,10 +1729,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C25" t="s">
@@ -1677,8 +1746,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" t="s">
         <v>83</v>
       </c>
@@ -1690,8 +1759,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" t="s">
         <v>84</v>
       </c>
@@ -1703,8 +1772,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C28" t="s">
@@ -1718,8 +1787,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
       <c r="C29" t="s">
         <v>86</v>
       </c>
@@ -1731,8 +1800,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C30" t="s">
@@ -1746,8 +1815,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
       <c r="C31" t="s">
         <v>90</v>
       </c>
@@ -1759,7 +1828,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1776,8 +1845,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C33" t="s">
@@ -1791,8 +1860,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" t="s">
         <v>95</v>
       </c>
@@ -1804,8 +1873,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" t="s">
         <v>96</v>
       </c>
@@ -1817,8 +1886,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" t="s">
         <v>97</v>
       </c>
@@ -1830,8 +1899,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" t="s">
         <v>98</v>
       </c>
@@ -1843,8 +1912,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
       <c r="C38" t="s">
         <v>99</v>
       </c>
@@ -1856,8 +1925,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C39" t="s">
@@ -1871,8 +1940,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
       <c r="C40" t="s">
         <v>101</v>
       </c>
@@ -1884,8 +1953,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
       <c r="C41" t="s">
         <v>102</v>
       </c>
@@ -1897,8 +1966,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C42" t="s">
@@ -1912,8 +1981,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
       <c r="C43" t="s">
         <v>105</v>
       </c>
@@ -1925,10 +1994,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C44" t="s">
@@ -1939,8 +2008,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="6"/>
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -1949,8 +2018,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="26"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="6"/>
       <c r="C46" t="s">
         <v>25</v>
       </c>
@@ -1959,7 +2028,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="3" t="s">
         <v>20</v>
       </c>
@@ -1971,7 +2040,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="3" t="s">
         <v>21</v>
       </c>
@@ -1983,7 +2052,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="3" t="s">
         <v>23</v>
       </c>
@@ -1995,8 +2064,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="26" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C50" t="s">
@@ -2007,8 +2076,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="6"/>
       <c r="C51" t="s">
         <v>37</v>
       </c>
@@ -2017,8 +2086,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="6"/>
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -2027,8 +2096,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="6"/>
       <c r="C53" t="s">
         <v>39</v>
       </c>
@@ -2037,8 +2106,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="6"/>
       <c r="C54" t="s">
         <v>40</v>
       </c>
@@ -2047,8 +2116,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="26"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="6"/>
       <c r="C55" t="s">
         <v>41</v>
       </c>
@@ -2057,8 +2126,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="26"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="6"/>
       <c r="C56" t="s">
         <v>42</v>
       </c>
@@ -2067,8 +2136,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
-      <c r="B57" s="26" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C57" t="s">
@@ -2079,8 +2148,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="26"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="6"/>
       <c r="C58" t="s">
         <v>68</v>
       </c>
@@ -2089,8 +2158,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="26"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="6"/>
       <c r="C59" t="s">
         <v>69</v>
       </c>
@@ -2099,8 +2168,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" s="26"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="6"/>
       <c r="C60" t="s">
         <v>70</v>
       </c>
@@ -2109,8 +2178,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="6"/>
       <c r="C61" t="s">
         <v>71</v>
       </c>
@@ -2119,8 +2188,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
-      <c r="B62" s="26"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="6"/>
       <c r="C62" t="s">
         <v>72</v>
       </c>
@@ -2129,8 +2198,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
-      <c r="B63" s="26"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="6"/>
       <c r="C63" t="s">
         <v>73</v>
       </c>
@@ -2139,8 +2208,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
-      <c r="B64" s="26"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="6"/>
       <c r="C64" t="s">
         <v>74</v>
       </c>
@@ -2149,8 +2218,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
-      <c r="B65" s="26"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="6"/>
       <c r="C65" t="s">
         <v>75</v>
       </c>
@@ -2159,8 +2228,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
-      <c r="B66" s="26" t="s">
+      <c r="A66" s="8"/>
+      <c r="B66" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C66" t="s">
@@ -2171,8 +2240,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="27"/>
-      <c r="B67" s="26"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="6"/>
       <c r="C67" t="s">
         <v>110</v>
       </c>
@@ -2181,8 +2250,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
-      <c r="B68" s="26"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="6"/>
       <c r="C68" t="s">
         <v>109</v>
       </c>
@@ -2191,8 +2260,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="6"/>
       <c r="C69" t="s">
         <v>111</v>
       </c>
@@ -2201,8 +2270,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
-      <c r="B70" s="26"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="6"/>
       <c r="C70" t="s">
         <v>112</v>
       </c>
@@ -2211,8 +2280,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
-      <c r="B71" s="26"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="6"/>
       <c r="C71" t="s">
         <v>113</v>
       </c>
@@ -2221,8 +2290,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="27"/>
-      <c r="B72" s="26"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="6"/>
       <c r="C72" t="s">
         <v>114</v>
       </c>
@@ -2231,8 +2300,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="27"/>
-      <c r="B73" s="26"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="6"/>
       <c r="C73" t="s">
         <v>115</v>
       </c>
@@ -2241,8 +2310,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
-      <c r="B74" s="26" t="s">
+      <c r="A74" s="8"/>
+      <c r="B74" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C74" t="s">
@@ -2253,8 +2322,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
-      <c r="B75" s="26"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="6"/>
       <c r="C75" t="s">
         <v>106</v>
       </c>
@@ -2263,8 +2332,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="27"/>
-      <c r="B76" s="26"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="6"/>
       <c r="C76" t="s">
         <v>107</v>
       </c>
@@ -2273,7 +2342,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="26" t="s">
+      <c r="A78" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -2284,7 +2353,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="26"/>
+      <c r="A79" s="6"/>
       <c r="B79" s="3" t="s">
         <v>4</v>
       </c>
@@ -2293,7 +2362,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="26"/>
+      <c r="A80" s="6"/>
       <c r="B80" s="3" t="s">
         <v>3</v>
       </c>
@@ -2302,7 +2371,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="26"/>
+      <c r="A81" s="6"/>
       <c r="B81" s="3" t="s">
         <v>127</v>
       </c>
@@ -2311,7 +2380,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="26"/>
+      <c r="A82" s="6"/>
       <c r="B82" s="3" t="s">
         <v>128</v>
       </c>
@@ -2320,7 +2389,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="26"/>
+      <c r="A83" s="6"/>
       <c r="B83" s="3" t="s">
         <v>131</v>
       </c>
@@ -2329,7 +2398,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="26"/>
+      <c r="A84" s="6"/>
       <c r="B84" s="3" t="s">
         <v>133</v>
       </c>
@@ -2338,7 +2407,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="26"/>
+      <c r="A85" s="6"/>
       <c r="B85" s="4" t="s">
         <v>135</v>
       </c>
@@ -2347,7 +2416,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="26"/>
+      <c r="A86" s="6"/>
       <c r="B86" s="4" t="s">
         <v>137</v>
       </c>
@@ -2356,7 +2425,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="26"/>
+      <c r="A87" s="6"/>
       <c r="B87" s="3" t="s">
         <v>55</v>
       </c>
@@ -2365,7 +2434,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="26"/>
+      <c r="A88" s="6"/>
       <c r="B88" s="3" t="s">
         <v>81</v>
       </c>
@@ -2374,7 +2443,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="26"/>
+      <c r="A89" s="6"/>
       <c r="B89" s="4" t="s">
         <v>87</v>
       </c>
@@ -2416,14 +2485,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B10:B13"/>
     <mergeCell ref="A78:A89"/>
     <mergeCell ref="B57:B65"/>
     <mergeCell ref="A14:A24"/>
@@ -2439,6 +2500,14 @@
     <mergeCell ref="B66:B73"/>
     <mergeCell ref="B50:B56"/>
     <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2447,326 +2516,1018 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I73"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.25" style="10" customWidth="1"/>
+    <col min="3" max="4" width="24.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="43.375" style="10" customWidth="1"/>
+    <col min="6" max="9" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="9" t="str">
+        <f>"'"&amp;A2&amp;"'"&amp;","</f>
+        <v>'What’s in the Box',</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11">
-        <v>4000</v>
-      </c>
-      <c r="C7" s="11">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12">
-        <f>C7*B7</f>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="13">
-        <v>4800</v>
-      </c>
-      <c r="C8" s="13">
-        <v>15</v>
-      </c>
-      <c r="D8" s="14">
-        <f t="shared" ref="D8:D13" si="0">C8*B8</f>
-        <v>72000</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="13">
-        <v>7000</v>
-      </c>
-      <c r="C9" s="13">
-        <v>12</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="D2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="10" t="str">
+        <f t="shared" ref="E2:E22" si="0">"'"&amp;C2&amp;"'"&amp;" : "&amp;"'"&amp;D2&amp;"'"&amp;","</f>
+        <v>'Headphone Fit' : 'Around Ear Circumaural',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="9" t="str">
+        <f t="shared" ref="B3:B66" si="1">"'"&amp;A3&amp;"'"&amp;","</f>
+        <v>'Bose QuietComfort Ultra Headphones',</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="13">
-        <v>12000</v>
-      </c>
-      <c r="C10" s="13">
-        <v>8</v>
-      </c>
-      <c r="D10" s="15">
+        <v>'Headband' : 'On Head Adjustable',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Carry case',</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>96000</v>
-      </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C11" s="13">
-        <v>10</v>
-      </c>
-      <c r="D11" s="14">
+        <v>'Cushions' : 'Removable Cushion',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'3.5 mm to 2.5 mm audio cable',</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C12" s="13">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14">
+        <v>'Microphones' : 'Built-in Microphone',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'USB-C® (A to C) cable (20")',</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="16">
-        <v>10000</v>
-      </c>
-      <c r="C13" s="16">
-        <v>10</v>
-      </c>
-      <c r="D13" s="17">
+        <v>'Noise Cancelling' : 'Yes',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Safety sheet',</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18">
-        <f>SUM(D7:D13)</f>
-        <v>552000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="10" t="s">
+        <v>'Noise Control Type' : 'Active Noise Cancelling, Echo Reduction, Adjustable Noise Cancelling',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Audio cable included' : 'Yes',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Case' : 'Carry',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Headphone' : '7.7" H x 5.5" W x 2.0" D (0.56 lb)',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Product Material' : 'Plastic, Aluminum, Leather (Protein)',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Product Case Material' : 'Plastic (Hard)',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Ear Cushion Material' : 'Protein Leather',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Rechargeable' : 'Yes',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Battery Life' : '24 hours',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Battery Charge Time' : '3 hours',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Charging Accessory included' : 'Yes',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Charging Interface(s)' : 'USB C PORT',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Wireless Connectivity' : 'Bluetooth, A2DP Bluetooth Audio Streaming, HFP Bluetooth, AVRCP Bluetooth, Bluetooth Low Energy',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="E20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Bluetooth Version' : '5.3',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Bluetooth Range' : '30'',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Bose App' : 'Bose Music App',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'What’s in the Box',</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="D24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f>"'"&amp;C24&amp;"'"&amp;" : "&amp;"'"&amp;D24&amp;"'"&amp;","</f>
+        <v>'Headphone Fit' : 'Around Ear Circumaural',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Bose QuietComfort Headphones',</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="11">
-        <v>50000</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
-        <f>C17*B17</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="D25" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f t="shared" ref="E25:E43" si="2">"'"&amp;C25&amp;"'"&amp;" : "&amp;"'"&amp;D25&amp;"'"&amp;","</f>
+        <v>'Headband' : 'On Head',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Carry Case',</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cushions' : 'Removable Cushion',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'3.5 mm to 2.5 mm audio cable',</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Microphones' : 'Built-in Microphone',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'USB-C® (A to C) cable (12")',</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Noise Cancelling' : 'Yes',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Safety Sheet',</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Noise Control Type' : 'Active Noise Cancelling',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Audio cable included' : 'Yes',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Case' : 'Carry, Storage',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Headphone' : '7.68" H x 6.18" W x 3.15" D (0.520 lb)',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Product Material' : 'Metal, Plastic, Leather (Protein)',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Product Case Material' : 'Leather (Hard)',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Ear Cushion Material' : 'Protein Leather',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Rechargeable' : 'Yes',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Battery Life' : '24 hours',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Battery Charge Time' : '2.5 hours',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Charging Accessory included' : 'Yes',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Charging Interface(s)' : 'USB',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Wireless Connectivity' : 'Bluetooth',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E42" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Bluetooth Version' : '5.1',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Bose App' : 'Bose Music App',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'What’s in the Box',</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="13">
-        <v>100000</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" ref="D18:D25" si="1">C18*B18</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Headset',</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'1/8 Connector stereo input cable',</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'2X Alkaline AA batteries',</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Control module holder',</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'2X Cable clips',</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Quick Start Guide',</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Owner's guide',</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Warranty Card',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'What’s in the Box',</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'ProFlight Series 2 Aviation Headset',</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="13">
-        <v>30000</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+        <v>'Carry case',</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="13">
-        <v>180000</v>
-      </c>
-      <c r="C20" s="13">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="D58" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="13">
-        <v>60000</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13">
+        <v>'Carry case hook',</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="13">
-        <v>50000</v>
-      </c>
-      <c r="C22" s="13">
-        <v>1</v>
-      </c>
-      <c r="D22" s="13">
+        <v>'2 AA batteries',</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="13">
-        <v>-15000</v>
-      </c>
-      <c r="C23" s="13">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13">
+        <v>'Control module holder',</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>-15000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="13">
-        <v>30000</v>
-      </c>
-      <c r="C24" s="13">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13">
+        <v>'3 sizes of StayHear+ eartips (S, M, L)',</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="16">
-        <v>10000</v>
-      </c>
-      <c r="C25" s="16">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18">
-        <f>SUM(D17:D25)</f>
-        <v>495000</v>
-      </c>
-      <c r="E26" s="8">
-        <f>D26+D14</f>
-        <v>1047000</v>
+        <v>'Owner’s guide',</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="9"/>
+      <c r="C64" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="9"/>
+      <c r="C65" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="9"/>
+      <c r="C66" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="9" t="str">
+        <f t="shared" ref="B67:B73" si="3">"'"&amp;A68&amp;"'"&amp;","</f>
+        <v>'What’s in the Box',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'A20 Headset',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B70" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'Carrying case',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B71" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'2 clothing clips',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B72" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'2 AA alkaline batteries',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B73" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'3.5 mm stereo audio cable',</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
